--- a/Tesis data/Data final findex.xlsx
+++ b/Tesis data/Data final findex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriel/Documents/GitHub/GabrielDelC/Tesis data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C4EB5B-C69C-8349-B8B7-8AAE2193B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60AA9B4-4A74-A94C-AFD6-00CF2D05F03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,14 +121,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,11 +434,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="125" workbookViewId="0">
+      <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -462,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -487,43 +498,43 @@
       <c r="A2" s="2">
         <v>36981</v>
       </c>
-      <c r="B2">
-        <v>17.039397524586882</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="3">
+        <v>0.85405096604768482</v>
+      </c>
+      <c r="C2" s="3">
         <v>10.393333333333331</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>12.4766666666667</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>1634.992153367527</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>-32.495441739510682</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>2.0631383790372322</v>
       </c>
-      <c r="H2">
-        <v>1.21597305268574</v>
-      </c>
-      <c r="I2">
-        <v>-20.96959396218784</v>
-      </c>
-      <c r="J2">
-        <v>-4.6391128944094973E-2</v>
-      </c>
-      <c r="K2">
+      <c r="H2" s="3">
+        <v>1.2233960617609296</v>
+      </c>
+      <c r="I2" s="3">
+        <v>-18.91692500033292</v>
+      </c>
+      <c r="J2" s="3">
+        <v>-4.6391128944094975</v>
+      </c>
+      <c r="K2" s="3">
         <v>10.244488970374899</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>26.336670000000002</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="3">
         <v>6.51512645827209</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>6.1779819501950328E-3</v>
       </c>
     </row>
@@ -531,43 +542,43 @@
       <c r="A3" s="2">
         <v>37072</v>
       </c>
-      <c r="B3">
-        <v>16.381700579852801</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="3">
+        <v>0.91777638402015571</v>
+      </c>
+      <c r="C3" s="3">
         <v>10.19333333333334</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>12.2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>1649.71878092156</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>6.8619593204019624</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>-1.293245868473528</v>
       </c>
-      <c r="H3">
-        <v>1.5967439487064681</v>
-      </c>
-      <c r="I3">
-        <v>-7.5002316788119652</v>
-      </c>
-      <c r="J3">
-        <v>-4.6101801519102918E-3</v>
-      </c>
-      <c r="K3">
+      <c r="H3" s="3">
+        <v>1.6095600273527046</v>
+      </c>
+      <c r="I3" s="3">
+        <v>-7.225866305404451</v>
+      </c>
+      <c r="J3" s="3">
+        <v>-0.4610180151910292</v>
+      </c>
+      <c r="K3" s="3">
         <v>9.8783760472814262</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>22.393329999999999</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="3">
         <v>-3.828285393373497</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>1.3128081679551261E-2</v>
       </c>
     </row>
@@ -575,43 +586,43 @@
       <c r="A4" s="2">
         <v>37164</v>
       </c>
-      <c r="B4">
-        <v>16.505317768406389</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3">
+        <v>1.0230504754132055</v>
+      </c>
+      <c r="C4" s="3">
         <v>9.9766666666666666</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>12.706666666666671</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1621.5073788774509</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>-14.805495621394011</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.24509429408283029</v>
       </c>
-      <c r="H4">
-        <v>1.095138348498095</v>
-      </c>
-      <c r="I4">
-        <v>-5.4607855102234888</v>
-      </c>
-      <c r="J4">
-        <v>2.4477506081336298E-2</v>
-      </c>
-      <c r="K4">
+      <c r="H4" s="3">
+        <v>1.1011569390756388</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-5.314361994130504</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2.4477506081336298</v>
+      </c>
+      <c r="K4" s="3">
         <v>9.2894707293848935</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>26.156669999999998</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>2.5423873766201628</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>0</v>
       </c>
     </row>
@@ -619,43 +630,43 @@
       <c r="A5" s="2">
         <v>37256</v>
       </c>
-      <c r="B5">
-        <v>16.464070857475772</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3">
+        <v>1.0332437782434654</v>
+      </c>
+      <c r="C5" s="3">
         <v>9.4566666666666652</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>13.20333333333333</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1598.4070737449599</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>-6.9292332402802153</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>-0.14914014616122029</v>
       </c>
-      <c r="H5">
-        <v>-1.750846923083306E-2</v>
-      </c>
-      <c r="I5">
-        <v>-6.5355808205385264</v>
-      </c>
-      <c r="J5">
-        <v>5.1232693338635352E-2</v>
-      </c>
-      <c r="K5">
+      <c r="H5" s="3">
+        <v>-1.7506936587809125E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-6.3265893605973913</v>
+      </c>
+      <c r="J5" s="3">
+        <v>5.1232693338635356</v>
+      </c>
+      <c r="K5" s="3">
         <v>7.8064680268329401</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>27.066669999999998</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>8.4852275340668228</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>2.2969585303450279E-2</v>
       </c>
     </row>
@@ -663,43 +674,43 @@
       <c r="A6" s="2">
         <v>37346</v>
       </c>
-      <c r="B6">
-        <v>16.586326651246249</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="3">
+        <v>2.0234824781375713</v>
+      </c>
+      <c r="C6" s="3">
         <v>9.1433333333333326</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>12.9933333333333</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>1567.9658123523141</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>2.1091936504517639</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>-2.888369209185198</v>
       </c>
-      <c r="H6">
-        <v>5.0217324014097873</v>
-      </c>
-      <c r="I6">
-        <v>-1.497674547635377</v>
-      </c>
-      <c r="J6">
-        <v>7.3975043293265957E-2</v>
-      </c>
-      <c r="K6">
+      <c r="H6" s="3">
+        <v>5.1499587658015527</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-1.4865151821680715</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7.3975043293265959</v>
+      </c>
+      <c r="K6" s="3">
         <v>7.5225079662750316</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>20.026669999999999</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>13.237194012197151</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>0.109466353473229</v>
       </c>
     </row>
@@ -707,43 +718,43 @@
       <c r="A7" s="2">
         <v>37437</v>
       </c>
-      <c r="B7">
-        <v>16.88801652664138</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3">
+        <v>1.7766203635254825</v>
+      </c>
+      <c r="C7" s="3">
         <v>8.48</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>13.07</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>1547.625645486864</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.38824062930830061</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>3.0843986785051052</v>
       </c>
-      <c r="H7">
-        <v>4.0866720310863531</v>
-      </c>
-      <c r="I7">
-        <v>-2.9019306555913031</v>
-      </c>
-      <c r="J7">
-        <v>5.4112001805459282E-2</v>
-      </c>
-      <c r="K7">
+      <c r="H7" s="3">
+        <v>4.1713257073772434</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-2.8602290058638014</v>
+      </c>
+      <c r="J7" s="3">
+        <v>5.4112001805459276</v>
+      </c>
+      <c r="K7" s="3">
         <v>7.645399396263719</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>22.43</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>7.8140292270435561</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0.2073725551766202</v>
       </c>
     </row>
@@ -751,43 +762,43 @@
       <c r="A8" s="2">
         <v>37529</v>
       </c>
-      <c r="B8">
-        <v>16.469674928913079</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="3">
+        <v>1.6479034165202089</v>
+      </c>
+      <c r="C8" s="3">
         <v>8.25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>12.86333333333333</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>1566.905467954693</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>9.2574397142063809</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>1.0770445268220841</v>
       </c>
-      <c r="H8">
-        <v>4.6259396350070547</v>
-      </c>
-      <c r="I8">
-        <v>-1.462504242776538</v>
-      </c>
-      <c r="J8">
-        <v>4.5030619507287477E-2</v>
-      </c>
-      <c r="K8">
+      <c r="H8" s="3">
+        <v>4.7346053467406497</v>
+      </c>
+      <c r="I8" s="3">
+        <v>-1.4518615957017711</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.5030619507287479</v>
+      </c>
+      <c r="K8" s="3">
         <v>7.6390951484320579</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>34.786670000000001</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>0.63707154854188608</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0.28256867143380571</v>
       </c>
     </row>
@@ -795,43 +806,43 @@
       <c r="A9" s="2">
         <v>37621</v>
       </c>
-      <c r="B9">
-        <v>16.76581552834573</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="3">
+        <v>1.5497594532596861</v>
+      </c>
+      <c r="C9" s="3">
         <v>8.0266666666666655</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>13.403333333333331</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>1563.0533383065499</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>-7.972028922519379</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>4.4394385308779842</v>
       </c>
-      <c r="H9">
-        <v>5.4908579559427979</v>
-      </c>
-      <c r="I9">
-        <v>1.0290957584256479</v>
-      </c>
-      <c r="J9">
-        <v>4.9372773098006348E-2</v>
-      </c>
-      <c r="K9">
+      <c r="H9" s="3">
+        <v>5.6444029682006951</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.0344091598470557</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.9372773098006348</v>
+      </c>
+      <c r="K9" s="3">
         <v>4.9231307418913746</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>29.086670000000002</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="3">
         <v>8.6079559002240256</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0.33368278381010053</v>
       </c>
     </row>
@@ -839,43 +850,43 @@
       <c r="A10" s="2">
         <v>37711</v>
       </c>
-      <c r="B10">
-        <v>16.639627093354559</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="3">
+        <v>1.328670668944594</v>
+      </c>
+      <c r="C10" s="3">
         <v>7.8533333333333344</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>13.08</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>1675.67944354312</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>-16.28136225479372</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>2.4927740689794762</v>
       </c>
-      <c r="H10">
-        <v>0.8196933265861529</v>
-      </c>
-      <c r="I10">
-        <v>7.8610085553223827</v>
-      </c>
-      <c r="J10">
-        <v>4.3279643662621943E-2</v>
-      </c>
-      <c r="K10">
+      <c r="H10" s="3">
+        <v>0.82306201033569004</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8.1782437225618807</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4.3279643662621936</v>
+      </c>
+      <c r="K10" s="3">
         <v>3.7714159716937381</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>29.983329999999999</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="3">
         <v>-11.21985256475045</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0.37206535502687571</v>
       </c>
     </row>
@@ -883,43 +894,43 @@
       <c r="A11" s="2">
         <v>37802</v>
       </c>
-      <c r="B11">
-        <v>16.694378153625941</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="3">
+        <v>1.6604228116353823</v>
+      </c>
+      <c r="C11" s="3">
         <v>7.7566666666666668</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>13.016666666666669</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>1870.110493946486</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>5.6424396139336288</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>1.467943755187519</v>
       </c>
-      <c r="H11">
-        <v>2.7020420031056882</v>
-      </c>
-      <c r="I11">
-        <v>4.6805489403762008</v>
-      </c>
-      <c r="J11">
-        <v>5.0853212959105082E-2</v>
-      </c>
-      <c r="K11">
+      <c r="H11" s="3">
+        <v>2.7388781860124811</v>
+      </c>
+      <c r="I11" s="3">
+        <v>4.7918158068973016</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5.0853212959105081</v>
+      </c>
+      <c r="K11" s="3">
         <v>4.0500504564777762</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>20.066669999999998</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="3">
         <v>-7.0291079860532681</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>0.41647424395687721</v>
       </c>
     </row>
@@ -927,43 +938,43 @@
       <c r="A12" s="2">
         <v>37894</v>
       </c>
-      <c r="B12">
-        <v>17.176245433674609</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="3">
+        <v>1.882623798385983</v>
+      </c>
+      <c r="C12" s="3">
         <v>7.7333333333333343</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>12.91666666666667</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>1830.2562651077569</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>-5.2828393770097994</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>-0.64171721869363763</v>
       </c>
-      <c r="H12">
-        <v>2.961848990637117</v>
-      </c>
-      <c r="I12">
-        <v>6.1435855859783954</v>
-      </c>
-      <c r="J12">
-        <v>4.2826210658566732E-2</v>
-      </c>
-      <c r="K12">
+      <c r="H12" s="3">
+        <v>3.0061480129556069</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6.3362285881600293</v>
+      </c>
+      <c r="J12" s="3">
+        <v>4.2826210658566728</v>
+      </c>
+      <c r="K12" s="3">
         <v>3.965797427454556</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>20.28</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="3">
         <v>19.7221654634664</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>0.4623225293682075</v>
       </c>
     </row>
@@ -971,43 +982,43 @@
       <c r="A13" s="2">
         <v>37986</v>
       </c>
-      <c r="B13">
-        <v>17.431788547574271</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="3">
+        <v>1.9922682383990955</v>
+      </c>
+      <c r="C13" s="3">
         <v>6.5966666666666667</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>13.52</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>1813.413595422702</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>-2.7888116075128839</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>4.1497338885362423</v>
       </c>
-      <c r="H13">
-        <v>3.3380015078436229</v>
-      </c>
-      <c r="I13">
-        <v>2.556836119242027</v>
-      </c>
-      <c r="J13">
-        <v>2.8276066799450959E-2</v>
-      </c>
-      <c r="K13">
+      <c r="H13" s="3">
+        <v>3.3943378668268438</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2.5898035486366195</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.8276066799450961</v>
+      </c>
+      <c r="K13" s="3">
         <v>3.8960197128254839</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>16.91</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>22.196746159063331</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>0.55454762799398294</v>
       </c>
     </row>
@@ -1015,43 +1026,43 @@
       <c r="A14" s="2">
         <v>38077</v>
       </c>
-      <c r="B14">
-        <v>17.09736773629729</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3">
+        <v>2.0197116319196975</v>
+      </c>
+      <c r="C14" s="3">
         <v>5.84</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>13.78</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>1815.431064567267</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>-4.6659001062410761</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>6.5424365125049624</v>
       </c>
-      <c r="H14">
-        <v>4.0694065210406638</v>
-      </c>
-      <c r="I14">
-        <v>5.1733140230847932</v>
-      </c>
-      <c r="J14">
-        <v>4.0761285282262687E-2</v>
-      </c>
-      <c r="K14">
+      <c r="H14" s="3">
+        <v>4.1533415492454875</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5.3094676410173003</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4.0761285282262696</v>
+      </c>
+      <c r="K14" s="3">
         <v>3.66528033835041</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>15.973330000000001</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>29.336365622024289</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>0.57294017225601901</v>
       </c>
     </row>
@@ -1059,43 +1070,43 @@
       <c r="A15" s="2">
         <v>38168</v>
       </c>
-      <c r="B15">
-        <v>16.82528096171691</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3">
+        <v>1.9837065926907247</v>
+      </c>
+      <c r="C15" s="3">
         <v>5.43</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>14.036666666666671</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>1828.088526614376</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>10.48331746842077</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>3.3886815425046781</v>
       </c>
-      <c r="H15">
-        <v>3.124191519941327</v>
-      </c>
-      <c r="I15">
-        <v>4.0395519635757307</v>
-      </c>
-      <c r="J15">
-        <v>4.1102064013071829E-2</v>
-      </c>
-      <c r="K15">
+      <c r="H15" s="3">
+        <v>3.1735066093115787</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4.1222516711447055</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4.1102064013071828</v>
+      </c>
+      <c r="K15" s="3">
         <v>4.3328148991977127</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>15.67667</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>6.7744285002010578</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>0.5742958993652183</v>
       </c>
     </row>
@@ -1103,43 +1114,43 @@
       <c r="A16" s="2">
         <v>38260</v>
       </c>
-      <c r="B16">
-        <v>17.281662682280871</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3">
+        <v>1.9513621704290813</v>
+      </c>
+      <c r="C16" s="3">
         <v>4.8599999999999994</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>14.11333333333334</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>1814.338317331762</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>-6.0980780917099846</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>3.177659755006228</v>
       </c>
-      <c r="H16">
-        <v>3.1795765347624609</v>
-      </c>
-      <c r="I16">
-        <v>4.5626599296752079</v>
-      </c>
-      <c r="J16">
-        <v>4.6388538039663099E-2</v>
-      </c>
-      <c r="K16">
+      <c r="H16" s="3">
+        <v>3.2306650983963325</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4.6683505622238339</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4.6388538039663096</v>
+      </c>
+      <c r="K16" s="3">
         <v>4.1031896113175179</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>14.65</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>-18.627609178353129</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>0.63280861148492717</v>
       </c>
     </row>
@@ -1147,43 +1158,43 @@
       <c r="A17" s="2">
         <v>38352</v>
       </c>
-      <c r="B17">
-        <v>17.640762602920869</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="3">
+        <v>2.0919576617215889</v>
+      </c>
+      <c r="C17" s="3">
         <v>4.1066666666666656</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>14.03</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>1787.0410644968381</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>-3.663949635111122</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>1.899284894930706</v>
       </c>
-      <c r="H17">
-        <v>3.0725867425427049</v>
-      </c>
-      <c r="I17">
-        <v>10.04530171251913</v>
-      </c>
-      <c r="J17">
-        <v>6.6523704598590389E-2</v>
-      </c>
-      <c r="K17">
+      <c r="H17" s="3">
+        <v>3.1202778863547489</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10.567169284900912</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6.6523704598590392</v>
+      </c>
+      <c r="K17" s="3">
         <v>3.4173855721688731</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>14.26667</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>12.6653270239803</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>0.68769155707903584</v>
       </c>
     </row>
@@ -1191,43 +1202,43 @@
       <c r="A18" s="2">
         <v>38442</v>
       </c>
-      <c r="B18">
-        <v>16.966375754179339</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="3">
+        <v>2.2563004798311326</v>
+      </c>
+      <c r="C18" s="3">
         <v>3.71</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>13.94</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>1918.169711209795</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>2.4443772247801099</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>0.45760273739043189</v>
       </c>
-      <c r="H18">
-        <v>2.8354237112767988</v>
-      </c>
-      <c r="I18">
-        <v>3.7620800011444451</v>
-      </c>
-      <c r="J18">
-        <v>6.0491663421988189E-2</v>
-      </c>
-      <c r="K18">
+      <c r="H18" s="3">
+        <v>2.8760044870644172</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.8337420678387675</v>
+      </c>
+      <c r="J18" s="3">
+        <v>6.0491663421988191</v>
+      </c>
+      <c r="K18" s="3">
         <v>4.0156619662751636</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>12.973330000000001</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="3">
         <v>5.268321574471182</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>0.6987264779672584</v>
       </c>
     </row>
@@ -1235,43 +1246,43 @@
       <c r="A19" s="2">
         <v>38533</v>
       </c>
-      <c r="B19">
-        <v>16.28423902048122</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="3">
+        <v>2.6872594809443746</v>
+      </c>
+      <c r="C19" s="3">
         <v>3.246666666666667</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>13.54</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>1911.144984819231</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>18.032824996221329</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>1.5059924942183831</v>
       </c>
-      <c r="H19">
-        <v>3.2737936655974331</v>
-      </c>
-      <c r="I19">
-        <v>9.071153099967912</v>
-      </c>
-      <c r="J19">
-        <v>5.5677089002534923E-2</v>
-      </c>
-      <c r="K19">
+      <c r="H19" s="3">
+        <v>3.327971901834887</v>
+      </c>
+      <c r="I19" s="3">
+        <v>9.4953099670111349</v>
+      </c>
+      <c r="J19" s="3">
+        <v>5.5677089002534919</v>
+      </c>
+      <c r="K19" s="3">
         <v>4.2733614048534783</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>13.546670000000001</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="3">
         <v>13.725806460287719</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>0.70574181580539885</v>
       </c>
     </row>
@@ -1279,43 +1290,43 @@
       <c r="A20" s="2">
         <v>38625</v>
       </c>
-      <c r="B20">
-        <v>16.575449309758149</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="3">
+        <v>3.2503179234606336</v>
+      </c>
+      <c r="C20" s="3">
         <v>2.836666666666666</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>13.17</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>1882.916568435005</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>10.93134931794682</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>1.0757677055658541</v>
       </c>
-      <c r="H20">
-        <v>3.834497901319085</v>
-      </c>
-      <c r="I20">
-        <v>11.291193278231781</v>
-      </c>
-      <c r="J20">
-        <v>6.3828585886824329E-2</v>
-      </c>
-      <c r="K20">
+      <c r="H20" s="3">
+        <v>3.9089635171266792</v>
+      </c>
+      <c r="I20" s="3">
+        <v>11.953333442113587</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6.3828585886824332</v>
+      </c>
+      <c r="K20" s="3">
         <v>3.910881372607887</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>12.03</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="3">
         <v>1.469618446793074</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>0.75676690181269934</v>
       </c>
     </row>
@@ -1323,43 +1334,43 @@
       <c r="A21" s="2">
         <v>38717</v>
       </c>
-      <c r="B21">
-        <v>16.095866429476981</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="3">
+        <v>3.332939643711522</v>
+      </c>
+      <c r="C21" s="3">
         <v>2.413333333333334</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>12.47</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>1919.227032149711</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>22.806274904129211</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>2.0198174797255461</v>
       </c>
-      <c r="H21">
-        <v>4.4667151968633982</v>
-      </c>
-      <c r="I21">
-        <v>17.626635513375881</v>
-      </c>
-      <c r="J21">
-        <v>6.853243129878385E-2</v>
-      </c>
-      <c r="K21">
+      <c r="H21" s="3">
+        <v>4.5679749531932909</v>
+      </c>
+      <c r="I21" s="3">
+        <v>19.275571295182946</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6.8532431298783854</v>
+      </c>
+      <c r="K21" s="3">
         <v>3.590517566043637</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>13.15</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="3">
         <v>19.94716949859863</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>0.78608636196533987</v>
       </c>
     </row>
@@ -1367,43 +1378,43 @@
       <c r="A22" s="2">
         <v>38807</v>
       </c>
-      <c r="B22">
-        <v>15.133612413933211</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="3">
+        <v>2.6284928425672436</v>
+      </c>
+      <c r="C22" s="3">
         <v>2.2166666666666668</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>12.45</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>1932.186160478389</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>-3.175853490999466</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>4.7537309827231189</v>
       </c>
-      <c r="H22">
-        <v>5.2594406607702853</v>
-      </c>
-      <c r="I22">
-        <v>22.92384940386648</v>
-      </c>
-      <c r="J22">
-        <v>7.7415724910953304E-2</v>
-      </c>
-      <c r="K22">
+      <c r="H22" s="3">
+        <v>5.4002062140930267</v>
+      </c>
+      <c r="I22" s="3">
+        <v>25.764194335198287</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7.7415724910953303</v>
+      </c>
+      <c r="K22" s="3">
         <v>3.573576626824476</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>12.22667</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>35.627615387020917</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>0.80729223961499974</v>
       </c>
     </row>
@@ -1411,43 +1422,43 @@
       <c r="A23" s="2">
         <v>38898</v>
       </c>
-      <c r="B23">
-        <v>14.39872737222726</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3">
+        <v>3.1839411457388223</v>
+      </c>
+      <c r="C23" s="3">
         <v>2.06</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>12.553333333333329</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>1996.8659096417041</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>12.274139885452369</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>1.363877902682231</v>
       </c>
-      <c r="H23">
-        <v>5.7129111478269294</v>
-      </c>
-      <c r="I23">
-        <v>17.65239448830463</v>
-      </c>
-      <c r="J23">
-        <v>8.0364994469893175E-2</v>
-      </c>
-      <c r="K23">
+      <c r="H23" s="3">
+        <v>5.8792503836314953</v>
+      </c>
+      <c r="I23" s="3">
+        <v>19.306299417143702</v>
+      </c>
+      <c r="J23" s="3">
+        <v>8.0364994469893176</v>
+      </c>
+      <c r="K23" s="3">
         <v>3.5728486796679841</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>13.703329999999999</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="3">
         <v>56.283756441643582</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <v>0.80146927892882625</v>
       </c>
     </row>
@@ -1455,43 +1466,43 @@
       <c r="A24" s="2">
         <v>38990</v>
       </c>
-      <c r="B24">
-        <v>15.603330795529789</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="3">
+        <v>3.4013494615567348</v>
+      </c>
+      <c r="C24" s="3">
         <v>1.94</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>12.38</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>2061.5438171696151</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>10.20343474957132</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>-1.017239364915338</v>
       </c>
-      <c r="H24">
-        <v>6.3676807364204109</v>
-      </c>
-      <c r="I24">
-        <v>15.540784890490791</v>
-      </c>
-      <c r="J24">
-        <v>7.4531622584391263E-2</v>
-      </c>
-      <c r="K24">
+      <c r="H24" s="3">
+        <v>6.5747901221680145</v>
+      </c>
+      <c r="I24" s="3">
+        <v>16.813428625361119</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7.4531622584391259</v>
+      </c>
+      <c r="K24" s="3">
         <v>3.378977136556546</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>13.08</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="3">
         <v>9.2669699368247294</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <v>0.82440017915596342</v>
       </c>
     </row>
@@ -1499,43 +1510,43 @@
       <c r="A25" s="2">
         <v>39082</v>
       </c>
-      <c r="B25">
-        <v>16.145774208766792</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="3">
+        <v>3.5414009518577978</v>
+      </c>
+      <c r="C25" s="3">
         <v>1.77</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>12.41</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>2068.0355609353128</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>14.707660808461601</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>0.89669668306632233</v>
       </c>
-      <c r="H25">
-        <v>6.5945348155624064</v>
-      </c>
-      <c r="I25">
-        <v>16.040805050064069</v>
-      </c>
-      <c r="J25">
-        <v>6.6925577457173258E-2</v>
-      </c>
-      <c r="K25">
+      <c r="H25" s="3">
+        <v>6.8168338200962149</v>
+      </c>
+      <c r="I25" s="3">
+        <v>17.398982040135316</v>
+      </c>
+      <c r="J25" s="3">
+        <v>6.692557745717326</v>
+      </c>
+      <c r="K25" s="3">
         <v>3.3823789763831171</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>11.19</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="3">
         <v>6.5339005329957329</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <v>0.84751944051311212</v>
       </c>
     </row>
@@ -1543,43 +1554,43 @@
       <c r="A26" s="2">
         <v>39172</v>
       </c>
-      <c r="B26">
-        <v>15.54208627022013</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="3">
+        <v>4.1606878696835201</v>
+      </c>
+      <c r="C26" s="3">
         <v>1.6533333333333331</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>12.313333333333331</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>2075.9650040472061</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>8.1851445091648731</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>0.4384152566385669</v>
       </c>
-      <c r="H26">
-        <v>7.3312608292210317</v>
-      </c>
-      <c r="I26">
-        <v>12.348548111092541</v>
-      </c>
-      <c r="J26">
-        <v>6.0720205581258499E-2</v>
-      </c>
-      <c r="K26">
+      <c r="H26" s="3">
+        <v>7.6066871768519961</v>
+      </c>
+      <c r="I26" s="3">
+        <v>13.143357726422245</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6.0720205581258497</v>
+      </c>
+      <c r="K26" s="3">
         <v>3.2417299041936101</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>13.49333</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="3">
         <v>-1.234299957117321</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>0.87386004477742041</v>
       </c>
     </row>
@@ -1587,43 +1598,43 @@
       <c r="A27" s="2">
         <v>39263</v>
       </c>
-      <c r="B27">
-        <v>14.52999423755147</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="3">
+        <v>4.1616845423096764</v>
+      </c>
+      <c r="C27" s="3">
         <v>1.6266666666666669</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>12.03333333333333</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>2054.15635854939</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>30.899996378776631</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>2.926661750950732</v>
       </c>
-      <c r="H27">
-        <v>8.2673394431480478</v>
-      </c>
-      <c r="I27">
-        <v>19.033757342636392</v>
-      </c>
-      <c r="J27">
-        <v>7.33049428642258E-2</v>
-      </c>
-      <c r="K27">
+      <c r="H27" s="3">
+        <v>8.6186995888186217</v>
+      </c>
+      <c r="I27" s="3">
+        <v>20.965787709552902</v>
+      </c>
+      <c r="J27" s="3">
+        <v>7.3304942864225797</v>
+      </c>
+      <c r="K27" s="3">
         <v>7.1991214124524276</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>14.5</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="3">
         <v>23.22723200195205</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="3">
         <v>0.87890690386849224</v>
       </c>
     </row>
@@ -1631,43 +1642,43 @@
       <c r="A28" s="2">
         <v>39355</v>
       </c>
-      <c r="B28">
-        <v>14.829508525273489</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="3">
+        <v>4.0471776501882299</v>
+      </c>
+      <c r="C28" s="3">
         <v>1.55</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>11.89</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>2030.8010932105719</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>31.798952131774939</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>5.2133470536594544</v>
       </c>
-      <c r="H28">
-        <v>8.1914730355515388</v>
-      </c>
-      <c r="I28">
-        <v>23.92372968057245</v>
-      </c>
-      <c r="J28">
-        <v>9.6472473751325019E-2</v>
-      </c>
-      <c r="K28">
+      <c r="H28" s="3">
+        <v>8.5363257344555876</v>
+      </c>
+      <c r="I28" s="3">
+        <v>27.027993419283717</v>
+      </c>
+      <c r="J28" s="3">
+        <v>9.6472473751325012</v>
+      </c>
+      <c r="K28" s="3">
         <v>8.5183788798035849</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>21.633330000000001</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
         <v>-20.568836394705329</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="3">
         <v>0.88230702148904294</v>
       </c>
     </row>
@@ -1675,43 +1686,43 @@
       <c r="A29" s="2">
         <v>39447</v>
       </c>
-      <c r="B29">
-        <v>14.766941382023161</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="3">
+        <v>3.7381856656438481</v>
+      </c>
+      <c r="C29" s="3">
         <v>1.3733333333333331</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>12.08333333333333</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>2097.8749590265088</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>28.524634635103428</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>5.1175579394102817</v>
       </c>
-      <c r="H29">
-        <v>9.1531844096240746</v>
-      </c>
-      <c r="I29">
-        <v>22.786544468029842</v>
-      </c>
-      <c r="J29">
-        <v>0.1062610494851146</v>
-      </c>
-      <c r="K29">
+      <c r="H29" s="3">
+        <v>9.5851672543050821</v>
+      </c>
+      <c r="I29" s="3">
+        <v>25.591632384009465</v>
+      </c>
+      <c r="J29" s="3">
+        <v>10.626104948511463</v>
+      </c>
+      <c r="K29" s="3">
         <v>10.80421969907287</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>21.3</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="3">
         <v>-16.681556110885911</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="3">
         <v>0.88756540472158618</v>
       </c>
     </row>
@@ -1719,43 +1730,43 @@
       <c r="A30" s="2">
         <v>39538</v>
       </c>
-      <c r="B30">
-        <v>14.39790700709036</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="3">
+        <v>3.8776658419113432</v>
+      </c>
+      <c r="C30" s="3">
         <v>1.38</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>12.21</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>2038.9127225690479</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>19.991388380166988</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>5.4147403405043679</v>
       </c>
-      <c r="H30">
-        <v>8.6000785800794635</v>
-      </c>
-      <c r="I30">
-        <v>24.399385472344459</v>
-      </c>
-      <c r="J30">
-        <v>0.11700906691113611</v>
-      </c>
-      <c r="K30">
+      <c r="H30" s="3">
+        <v>8.9807184676143912</v>
+      </c>
+      <c r="I30" s="3">
+        <v>27.633648702466413</v>
+      </c>
+      <c r="J30" s="3">
+        <v>11.700906691113605</v>
+      </c>
+      <c r="K30" s="3">
         <v>12.566387562216519</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>26.116669999999999</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="3">
         <v>2.64872124357418</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <v>0.9078931188321625</v>
       </c>
     </row>
@@ -1763,43 +1774,43 @@
       <c r="A31" s="2">
         <v>39629</v>
       </c>
-      <c r="B31">
-        <v>13.274939969620741</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="3">
+        <v>4.1738810066829206</v>
+      </c>
+      <c r="C31" s="3">
         <v>1.2766666666666671</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>12.183333333333341</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>2005.603995073873</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>26.556740719527792</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>5.8952130550630653</v>
       </c>
-      <c r="H31">
-        <v>10.9877407669661</v>
-      </c>
-      <c r="I31">
-        <v>29.25599310471825</v>
-      </c>
-      <c r="J31">
-        <v>0.1064068395415219</v>
-      </c>
-      <c r="K31">
+      <c r="H31" s="3">
+        <v>11.614123171676896</v>
+      </c>
+      <c r="I31" s="3">
+        <v>33.985303295308029</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10.640683954152191</v>
+      </c>
+      <c r="K31" s="3">
         <v>16.01936284740562</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>20.856670000000001</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <v>-12.99887898974348</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="3">
         <v>0.91750030389322945</v>
       </c>
     </row>
@@ -1807,43 +1818,43 @@
       <c r="A32" s="2">
         <v>39721</v>
       </c>
-      <c r="B32">
-        <v>14.095194559470441</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="3">
+        <v>3.9348243241097873</v>
+      </c>
+      <c r="C32" s="3">
         <v>1.206666666666667</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>12.09333333333333</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>2000.5722267971771</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>30.404196390288352</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>7.2398110537295519</v>
       </c>
-      <c r="H32">
-        <v>9.0272856078804793</v>
-      </c>
-      <c r="I32">
-        <v>24.30647703114548</v>
-      </c>
-      <c r="J32">
-        <v>8.9088775081270014E-2</v>
-      </c>
-      <c r="K32">
+      <c r="H32" s="3">
+        <v>9.447287654437428</v>
+      </c>
+      <c r="I32" s="3">
+        <v>27.515121338500737</v>
+      </c>
+      <c r="J32" s="3">
+        <v>8.9088775081270022</v>
+      </c>
+      <c r="K32" s="3">
         <v>16.561154073920651</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>27.66</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="3">
         <v>-31.805231217954599</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="3">
         <v>0.92080646855440895</v>
       </c>
     </row>
@@ -1851,43 +1862,43 @@
       <c r="A33" s="2">
         <v>39813</v>
       </c>
-      <c r="B33">
-        <v>13.527540610512849</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="3">
+        <v>3.702607928583399</v>
+      </c>
+      <c r="C33" s="3">
         <v>1.24</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>11.82666666666667</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>2025.6141950691949</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>46.415183451233851</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>7.1256576367119919</v>
       </c>
-      <c r="H33">
-        <v>5.2720638329046681</v>
-      </c>
-      <c r="I33">
-        <v>11.618319122454141</v>
-      </c>
-      <c r="J33">
-        <v>5.8303959458098548E-2</v>
-      </c>
-      <c r="K33">
+      <c r="H33" s="3">
+        <v>5.4135119033357775</v>
+      </c>
+      <c r="I33" s="3">
+        <v>12.320161396669956</v>
+      </c>
+      <c r="J33" s="3">
+        <v>5.8303959458098547</v>
+      </c>
+      <c r="K33" s="3">
         <v>15.665083019472551</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>51.723329999999997</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="3">
         <v>-55.949190922025061</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="3">
         <v>0.90142961260690502</v>
       </c>
     </row>
@@ -1895,43 +1906,43 @@
       <c r="A34" s="2">
         <v>39903</v>
       </c>
-      <c r="B34">
-        <v>13.993388467138949</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="3">
+        <v>3.9666881406215309</v>
+      </c>
+      <c r="C34" s="3">
         <v>1.3933333333333331</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>12.26333333333333</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>2046.1401854151729</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>12.68094452140171</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>1.714850799098472</v>
       </c>
-      <c r="H34">
-        <v>4.1531218204950298</v>
-      </c>
-      <c r="I34">
-        <v>3.4912425996573648</v>
-      </c>
-      <c r="J34">
-        <v>2.2325446164116809E-2</v>
-      </c>
-      <c r="K34">
+      <c r="H34" s="3">
+        <v>4.240570337841632</v>
+      </c>
+      <c r="I34" s="3">
+        <v>3.5529019406770992</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2.2325446164116811</v>
+      </c>
+      <c r="K34" s="3">
         <v>13.616026666974481</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>45.11</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="3">
         <v>10.70221358202396</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="3">
         <v>0.89591430519431881</v>
       </c>
     </row>
@@ -1939,43 +1950,43 @@
       <c r="A35" s="2">
         <v>39994</v>
       </c>
-      <c r="B35">
-        <v>15.04882898684783</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="3">
+        <v>3.726337696491635</v>
+      </c>
+      <c r="C35" s="3">
         <v>1.573333333333333</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>12.9</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>2035.548914461566</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>-11.880567762986651</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>-0.49438515440050301</v>
       </c>
-      <c r="H35">
-        <v>0.69488456615863203</v>
-      </c>
-      <c r="I35">
-        <v>-11.24074524732011</v>
-      </c>
-      <c r="J35">
-        <v>3.4005457637554799E-3</v>
-      </c>
-      <c r="K35">
+      <c r="H35" s="3">
+        <v>0.69730449094067304</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-10.631994884008666</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.34005457637554803</v>
+      </c>
+      <c r="K35" s="3">
         <v>10.71985804010451</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>30.59</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="3">
         <v>24.22643048596219</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="3">
         <v>0.88594630823162235</v>
       </c>
     </row>
@@ -1983,43 +1994,43 @@
       <c r="A36" s="2">
         <v>40086</v>
       </c>
-      <c r="B36">
-        <v>16.311921583732509</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="3">
+        <v>3.7276104826772904</v>
+      </c>
+      <c r="C36" s="3">
         <v>1.6366666666666669</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>13.633333333333329</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>2041.8516756471911</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>1.794666713938275</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>-0.78000963551295288</v>
       </c>
-      <c r="H36">
-        <v>2.3424756904396529</v>
-      </c>
-      <c r="I36">
-        <v>-5.1806010964812321</v>
-      </c>
-      <c r="J36">
-        <v>-8.4149261983128255E-4</v>
-      </c>
-      <c r="K36">
+      <c r="H36" s="3">
+        <v>2.3701271396069048</v>
+      </c>
+      <c r="I36" s="3">
+        <v>-5.0486955902549413</v>
+      </c>
+      <c r="J36" s="3">
+        <v>-8.4149261983128248E-2</v>
+      </c>
+      <c r="K36" s="3">
         <v>9.8424252235614897</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>25.84667</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="3">
         <v>24.54283621940986</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="3">
         <v>0.90379868100416849</v>
       </c>
     </row>
@@ -2027,43 +2038,43 @@
       <c r="A37" s="2">
         <v>40178</v>
       </c>
-      <c r="B37">
-        <v>16.801090778328799</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="3">
+        <v>3.7575004715373734</v>
+      </c>
+      <c r="C37" s="3">
         <v>1.6033333333333331</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>13.49</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>2042.8510169335621</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>6.4551404750625494</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>1.236810117912531</v>
       </c>
-      <c r="H37">
-        <v>5.3983120941424731</v>
-      </c>
-      <c r="I37">
-        <v>6.585740633669551</v>
-      </c>
-      <c r="J37">
-        <v>2.5387426310407059E-2</v>
-      </c>
-      <c r="K37">
+      <c r="H37" s="3">
+        <v>5.546678671900918</v>
+      </c>
+      <c r="I37" s="3">
+        <v>6.8074405664738462</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2.5387426310407055</v>
+      </c>
+      <c r="K37" s="3">
         <v>11.39145337869866</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>25.626670000000001</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="3">
         <v>39.423194279826816</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="3">
         <v>0.89566149489046853</v>
       </c>
     </row>
@@ -2071,43 +2082,43 @@
       <c r="A38" s="2">
         <v>40268</v>
       </c>
-      <c r="B38">
-        <v>16.564384607771999</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="3">
+        <v>3.6502565628882553</v>
+      </c>
+      <c r="C38" s="3">
         <v>1.686666666666667</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>13.686666666666669</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>2072.1378218055211</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>9.9770848092588871</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>2.754287671541221</v>
       </c>
-      <c r="H38">
-        <v>7.0758282001139357</v>
-      </c>
-      <c r="I38">
-        <v>15.00390138744064</v>
-      </c>
-      <c r="J38">
-        <v>5.4781944951868333E-2</v>
-      </c>
-      <c r="K38">
+      <c r="H38" s="3">
+        <v>7.3321753323681547</v>
+      </c>
+      <c r="I38" s="3">
+        <v>16.18795712677252</v>
+      </c>
+      <c r="J38" s="3">
+        <v>5.4781944951868322</v>
+      </c>
+      <c r="K38" s="3">
         <v>17.845188094752999</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>20.57</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="3">
         <v>14.357382910622221</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="3">
         <v>0.89038916268955537</v>
       </c>
     </row>
@@ -2115,43 +2126,43 @@
       <c r="A39" s="2">
         <v>40359</v>
       </c>
-      <c r="B39">
-        <v>16.33532277422724</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="3">
+        <v>3.8398049464429236</v>
+      </c>
+      <c r="C39" s="3">
         <v>1.7133333333333329</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>14.133333333333329</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>2055.214758973103</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>20.806143428286241</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
         <v>1.3655306540468599</v>
       </c>
-      <c r="H39">
-        <v>8.3335485041690891</v>
-      </c>
-      <c r="I39">
-        <v>27.918788788911819</v>
-      </c>
-      <c r="J39">
-        <v>9.4262494874061534E-2</v>
-      </c>
-      <c r="K39">
+      <c r="H39" s="3">
+        <v>8.6906388224272177</v>
+      </c>
+      <c r="I39" s="3">
+        <v>32.205571879378901</v>
+      </c>
+      <c r="J39" s="3">
+        <v>9.4262494874061531</v>
+      </c>
+      <c r="K39" s="3">
         <v>17.358749733352049</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>29.553329999999999</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="3">
         <v>12.451280629954899</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="3">
         <v>0.89130643143593791</v>
       </c>
     </row>
@@ -2159,43 +2170,43 @@
       <c r="A40" s="2">
         <v>40451</v>
       </c>
-      <c r="B40">
-        <v>16.22511537725542</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="3">
+        <v>3.6861993816549568</v>
+      </c>
+      <c r="C40" s="3">
         <v>1.7333333333333329</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>13.89</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>2049.8397649559702</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>9.5411308168937037</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
         <v>3.164889851894682</v>
       </c>
-      <c r="H40">
-        <v>9.6723058171586711</v>
-      </c>
-      <c r="I40">
-        <v>23.449202232545009</v>
-      </c>
-      <c r="J40">
-        <v>9.5703482821976563E-2</v>
-      </c>
-      <c r="K40">
+      <c r="H40" s="3">
+        <v>10.155526464515278</v>
+      </c>
+      <c r="I40" s="3">
+        <v>26.426638648976542</v>
+      </c>
+      <c r="J40" s="3">
+        <v>9.5703482821976564</v>
+      </c>
+      <c r="K40" s="3">
         <v>21.97005217582366</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>24.41667</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="3">
         <v>1.256952549692846</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="3">
         <v>0.91003966528967428</v>
       </c>
     </row>
@@ -2203,43 +2214,43 @@
       <c r="A41" s="2">
         <v>40543</v>
       </c>
-      <c r="B41">
-        <v>16.041448638052461</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="3">
+        <v>3.5684897984270787</v>
+      </c>
+      <c r="C41" s="3">
         <v>1.57</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>13.77</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>2084.3197002151851</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>11.678839782683889</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
         <v>1.142359861920172</v>
       </c>
-      <c r="H41">
-        <v>9.4786100169805945</v>
-      </c>
-      <c r="I41">
-        <v>17.175136880345619</v>
-      </c>
-      <c r="J41">
-        <v>8.6886689146045179E-2</v>
-      </c>
-      <c r="K41">
+      <c r="H41" s="3">
+        <v>9.9423663438347845</v>
+      </c>
+      <c r="I41" s="3">
+        <v>18.738257615970362</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8.6886689146045182</v>
+      </c>
+      <c r="K41" s="3">
         <v>22.479945354478481</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>20.83</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="3">
         <v>23.709837130097249</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="3">
         <v>0.92192419212149579</v>
       </c>
     </row>
@@ -2247,43 +2258,43 @@
       <c r="A42" s="2">
         <v>40633</v>
       </c>
-      <c r="B42">
-        <v>15.80942965855114</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="3">
+        <v>3.6313153454011666</v>
+      </c>
+      <c r="C42" s="3">
         <v>1.53</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>13.72666666666667</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>2064.9944646009349</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>19.101680061250171</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
         <v>3.6785759329264218</v>
       </c>
-      <c r="H42">
-        <v>8.5843749648754422</v>
-      </c>
-      <c r="I42">
-        <v>9.3995229547147794</v>
-      </c>
-      <c r="J42">
-        <v>8.2193654185382034E-2</v>
-      </c>
-      <c r="K42">
+      <c r="H42" s="3">
+        <v>8.9636058986208198</v>
+      </c>
+      <c r="I42" s="3">
+        <v>9.8554505302200521</v>
+      </c>
+      <c r="J42" s="3">
+        <v>8.219365418538203</v>
+      </c>
+      <c r="K42" s="3">
         <v>22.119248991442849</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>18.54</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="3">
         <v>14.2204596995256</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="3">
         <v>0.92925599041410079</v>
       </c>
     </row>
@@ -2291,43 +2302,43 @@
       <c r="A43" s="2">
         <v>40724</v>
       </c>
-      <c r="B43">
-        <v>15.07768606433541</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="3">
+        <v>3.6032706187587489</v>
+      </c>
+      <c r="C43" s="3">
         <v>1.51</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>13.69333333333333</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>2082.3981815775278</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>31.740423529020671</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
         <v>4.2611528182332163</v>
       </c>
-      <c r="H43">
-        <v>7.9703710488153234</v>
-      </c>
-      <c r="I43">
-        <v>3.1794276313108161</v>
-      </c>
-      <c r="J43">
-        <v>5.571516607306494E-2</v>
-      </c>
-      <c r="K43">
+      <c r="H43" s="3">
+        <v>8.2966148623309603</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3.2305113844872828</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5.5715166073064939</v>
+      </c>
+      <c r="K43" s="3">
         <v>20.909684649719161</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>15.57333</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="3">
         <v>-1.233415770653832</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="3">
         <v>0.9230260556118699</v>
       </c>
     </row>
@@ -2335,43 +2346,43 @@
       <c r="A44" s="2">
         <v>40816</v>
       </c>
-      <c r="B44">
-        <v>15.798193993610999</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="3">
+        <v>3.643633146952673</v>
+      </c>
+      <c r="C44" s="3">
         <v>1.55</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>13.493333333333331</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>2099.1478515076601</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>14.36895363415185</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
         <v>4.5566123140007884</v>
       </c>
-      <c r="H44">
-        <v>6.0998192322344957</v>
-      </c>
-      <c r="I44">
-        <v>2.961406674735227</v>
-      </c>
-      <c r="J44">
-        <v>5.6383356263401102E-2</v>
-      </c>
-      <c r="K44">
+      <c r="H44" s="3">
+        <v>6.2896992810315053</v>
+      </c>
+      <c r="I44" s="3">
+        <v>3.0056924013906321</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5.6383356263401092</v>
+      </c>
+      <c r="K44" s="3">
         <v>21.562995396688329</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="3">
         <v>33.276670000000003</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="3">
         <v>4.5400352328403626</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="3">
         <v>0.93129427814886734</v>
       </c>
     </row>
@@ -2379,43 +2390,43 @@
       <c r="A45" s="2">
         <v>40908</v>
       </c>
-      <c r="B45">
-        <v>16.697748393526549</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="3">
+        <v>3.7776678943244266</v>
+      </c>
+      <c r="C45" s="3">
         <v>1.52</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>13.55</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>2080.2895031228882</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>12.763676652822051</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
         <v>5.1793358924186164</v>
       </c>
-      <c r="H45">
-        <v>5.7678556692269698</v>
-      </c>
-      <c r="I45">
-        <v>8.341896501355162</v>
-      </c>
-      <c r="J45">
-        <v>6.0022569874669397E-2</v>
-      </c>
-      <c r="K45">
+      <c r="H45" s="3">
+        <v>5.9374412158899208</v>
+      </c>
+      <c r="I45" s="3">
+        <v>8.6997126926355772</v>
+      </c>
+      <c r="J45" s="3">
+        <v>6.0022569874669394</v>
+      </c>
+      <c r="K45" s="3">
         <v>18.041057183236251</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>27.053329999999999</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="3">
         <v>-24.84549684303969</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="3">
         <v>0.94846791838214983</v>
       </c>
     </row>
@@ -2423,43 +2434,43 @@
       <c r="A46" s="2">
         <v>40999</v>
       </c>
-      <c r="B46">
-        <v>16.468134912551712</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="3">
+        <v>3.7641956351334431</v>
+      </c>
+      <c r="C46" s="3">
         <v>1.5866666666666669</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>13.743333333333331</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>2083.6103020363839</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>12.83423328215598</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
         <v>2.305369946614614</v>
       </c>
-      <c r="H46">
-        <v>6.9861763720890853</v>
-      </c>
-      <c r="I46">
-        <v>15.82283715163895</v>
-      </c>
-      <c r="J46">
-        <v>5.9754282122761668E-2</v>
-      </c>
-      <c r="K46">
+      <c r="H46" s="3">
+        <v>7.2359931960877146</v>
+      </c>
+      <c r="I46" s="3">
+        <v>17.14336862500609</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5.9754282122761664</v>
+      </c>
+      <c r="K46" s="3">
         <v>20.646035620431729</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>17.79</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="3">
         <v>13.276484849768689</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="3">
         <v>0.95606111355596801</v>
       </c>
     </row>
@@ -2467,43 +2478,43 @@
       <c r="A47" s="2">
         <v>41090</v>
       </c>
-      <c r="B47">
-        <v>15.859394448364689</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="3">
+        <v>3.597057798644923</v>
+      </c>
+      <c r="C47" s="3">
         <v>1.72</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>14.67</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>2081.0981292150141</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>15.693805478066229</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
         <v>3.9490954126259412</v>
       </c>
-      <c r="H47">
-        <v>6.3812052182638537</v>
-      </c>
-      <c r="I47">
-        <v>16.058886644908871</v>
-      </c>
-      <c r="J47">
-        <v>6.3457449821347531E-2</v>
-      </c>
-      <c r="K47">
+      <c r="H47" s="3">
+        <v>6.5892047850400424</v>
+      </c>
+      <c r="I47" s="3">
+        <v>17.420211567680475</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6.3457449821347529</v>
+      </c>
+      <c r="K47" s="3">
         <v>22.7306229705035</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>19.43</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="3">
         <v>-12.437958246107909</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="3">
         <v>0.96071136037047444</v>
       </c>
     </row>
@@ -2511,43 +2522,43 @@
       <c r="A48" s="2">
         <v>41182</v>
       </c>
-      <c r="B48">
-        <v>16.428629689272729</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="3">
+        <v>3.5324223005214228</v>
+      </c>
+      <c r="C48" s="3">
         <v>1.73</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>13.813333333333331</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>2084.1940561202491</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>13.072266446269589</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
         <v>2.3602844378190291</v>
       </c>
-      <c r="H48">
-        <v>6.9849861412578926</v>
-      </c>
-      <c r="I48">
-        <v>15.704708081855509</v>
-      </c>
-      <c r="J48">
-        <v>6.8146594614250613E-2</v>
-      </c>
-      <c r="K48">
+      <c r="H48" s="3">
+        <v>7.2347168478303319</v>
+      </c>
+      <c r="I48" s="3">
+        <v>17.005069954885041</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6.8146594614250615</v>
+      </c>
+      <c r="K48" s="3">
         <v>23.122569711183171</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>17.376670000000001</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="3">
         <v>-2.635866819242084</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="3">
         <v>0.96072681045711039</v>
       </c>
     </row>
@@ -2555,43 +2566,43 @@
       <c r="A49" s="2">
         <v>41274</v>
       </c>
-      <c r="B49">
-        <v>16.5156251402598</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="3">
+        <v>3.4752926779424298</v>
+      </c>
+      <c r="C49" s="3">
         <v>1.7766666666666671</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>13.713333333333329</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>2087.6969666533419</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>9.019957222193991</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
         <v>2.6349888842566598</v>
       </c>
-      <c r="H49">
-        <v>7.3772332187182634</v>
-      </c>
-      <c r="I49">
-        <v>13.54645502606491</v>
-      </c>
-      <c r="J49">
-        <v>5.3107160014391953E-2</v>
-      </c>
-      <c r="K49">
+      <c r="H49" s="3">
+        <v>7.6561679150733948</v>
+      </c>
+      <c r="I49" s="3">
+        <v>14.506860273142671</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5.3107160014391948</v>
+      </c>
+      <c r="K49" s="3">
         <v>25.000001867023041</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>17.496670000000002</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="3">
         <v>9.5500036556034704</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="3">
         <v>0.97163119581669288</v>
       </c>
     </row>
@@ -2599,43 +2610,43 @@
       <c r="A50" s="2">
         <v>41364</v>
       </c>
-      <c r="B50">
-        <v>16.01064330609146</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="3">
+        <v>3.3570735379013592</v>
+      </c>
+      <c r="C50" s="3">
         <v>1.93</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>14.21</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>2079.2593466581961</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>9.1925835419352904</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
         <v>1.670786757584596</v>
       </c>
-      <c r="H50">
-        <v>5.7551188182284463</v>
-      </c>
-      <c r="I50">
-        <v>11.61957720232094</v>
-      </c>
-      <c r="J50">
-        <v>5.7501689324306458E-2</v>
-      </c>
-      <c r="K50">
+      <c r="H50" s="3">
+        <v>5.9239489811117618</v>
+      </c>
+      <c r="I50" s="3">
+        <v>12.321574482895709</v>
+      </c>
+      <c r="J50" s="3">
+        <v>5.750168932430646</v>
+      </c>
+      <c r="K50" s="3">
         <v>26.856904669472261</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>14.16333</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="3">
         <v>-0.48140995393399599</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="3">
         <v>0.96544142993536586</v>
       </c>
     </row>
@@ -2643,43 +2654,43 @@
       <c r="A51" s="2">
         <v>41455</v>
       </c>
-      <c r="B51">
-        <v>15.410792453107479</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="3">
+        <v>3.2140965961437118</v>
+      </c>
+      <c r="C51" s="3">
         <v>2.0733333333333341</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>14.52333333333333</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>2066.8071684739029</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>21.903331899040669</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
         <v>3.2820495789716539</v>
       </c>
-      <c r="H51">
-        <v>5.9831504096523149</v>
-      </c>
-      <c r="I51">
-        <v>11.92913040347227</v>
-      </c>
-      <c r="J51">
-        <v>5.8683820613681263E-2</v>
-      </c>
-      <c r="K51">
+      <c r="H51" s="3">
+        <v>6.1657646509489492</v>
+      </c>
+      <c r="I51" s="3">
+        <v>12.669808218555357</v>
+      </c>
+      <c r="J51" s="3">
+        <v>5.8683820613681261</v>
+      </c>
+      <c r="K51" s="3">
         <v>23.908500219438441</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="3">
         <v>15.56</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="3">
         <v>-29.73416448549623</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="3">
         <v>0.96925605352918853</v>
       </c>
     </row>
@@ -2687,43 +2698,43 @@
       <c r="A52" s="2">
         <v>41547</v>
       </c>
-      <c r="B52">
-        <v>15.56996530954452</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="3">
+        <v>3.1473225609470683</v>
+      </c>
+      <c r="C52" s="3">
         <v>2.1133333333333328</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>13.963333333333329</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>2075.7140556952399</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>23.50060680191843</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
         <v>4.6729134457620347</v>
       </c>
-      <c r="H52">
-        <v>5.5971457475318314</v>
-      </c>
-      <c r="I52">
-        <v>7.0724625293096706</v>
-      </c>
-      <c r="J52">
-        <v>5.2586914957070741E-2</v>
-      </c>
-      <c r="K52">
+      <c r="H52" s="3">
+        <v>5.756749765941537</v>
+      </c>
+      <c r="I52" s="3">
+        <v>7.3285629454702779</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5.2586914957070743</v>
+      </c>
+      <c r="K52" s="3">
         <v>22.261433138145261</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="3">
         <v>15.686669999999999</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="3">
         <v>-7.5055317645659398</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="3">
         <v>0.95754981698324793</v>
       </c>
     </row>
@@ -2731,43 +2742,43 @@
       <c r="A53" s="2">
         <v>41639</v>
       </c>
-      <c r="B53">
-        <v>16.204760668394659</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="3">
+        <v>3.2361957943758206</v>
+      </c>
+      <c r="C53" s="3">
         <v>2.163333333333334</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>13.676666666666669</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>2076.8616726486798</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>16.04947023565061</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
         <v>2.009146844919889</v>
       </c>
-      <c r="H53">
-        <v>5.2362844398170871</v>
-      </c>
-      <c r="I53">
-        <v>1.1888575907477501</v>
-      </c>
-      <c r="J53">
-        <v>6.407691744692337E-2</v>
-      </c>
-      <c r="K53">
+      <c r="H53" s="3">
+        <v>5.375802335074094</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1.1959525912095326</v>
+      </c>
+      <c r="J53" s="3">
+        <v>6.4076917446923369</v>
+      </c>
+      <c r="K53" s="3">
         <v>19.87090655637148</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="3">
         <v>13.723330000000001</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="3">
         <v>-4.5775670298808686</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="3">
         <v>0.95306543184032422</v>
       </c>
     </row>
@@ -2775,43 +2786,43 @@
       <c r="A54" s="2">
         <v>41729</v>
       </c>
-      <c r="B54">
-        <v>16.06699142910286</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="3">
+        <v>2.9581076937975546</v>
+      </c>
+      <c r="C54" s="3">
         <v>2.3066666666666671</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>14.016666666666669</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>2073.6687250313139</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>10.439171840403549</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>3.4266145960953942</v>
       </c>
-      <c r="H54">
-        <v>4.8575459260325067</v>
-      </c>
-      <c r="I54">
-        <v>0.23331053775240621</v>
-      </c>
-      <c r="J54">
-        <v>4.1802491028743852E-2</v>
-      </c>
-      <c r="K54">
+      <c r="H54" s="3">
+        <v>4.9774584045259616</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.2335829185773968</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4.1802491028743853</v>
+      </c>
+      <c r="K54" s="3">
         <v>19.39195128350498</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="3">
         <v>15.43</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="3">
         <v>-3.902091627652938</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="3">
         <v>0.94676771409152238</v>
       </c>
     </row>
@@ -2819,43 +2830,43 @@
       <c r="A55" s="2">
         <v>41820</v>
       </c>
-      <c r="B55">
-        <v>16.254513236151251</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="3">
+        <v>2.9961403427049818</v>
+      </c>
+      <c r="C55" s="3">
         <v>2.3933333333333331</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>14.37</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>2068.4339189684788</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>13.49016352587018</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>3.7024758700314901</v>
       </c>
-      <c r="H55">
-        <v>4.152824064117727</v>
-      </c>
-      <c r="I55">
-        <v>-2.2726921567948968</v>
-      </c>
-      <c r="J55">
-        <v>2.8983388903439111E-2</v>
-      </c>
-      <c r="K55">
+      <c r="H55" s="3">
+        <v>4.2402599553577955</v>
+      </c>
+      <c r="I55" s="3">
+        <v>-2.2470610478508886</v>
+      </c>
+      <c r="J55" s="3">
+        <v>2.8983388903439109</v>
+      </c>
+      <c r="K55" s="3">
         <v>18.84448536919184</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="3">
         <v>12.126670000000001</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="3">
         <v>-10.459454727133251</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="3">
         <v>0.9423349887654332</v>
       </c>
     </row>
@@ -2863,43 +2874,43 @@
       <c r="A56" s="2">
         <v>41912</v>
       </c>
-      <c r="B56">
-        <v>16.590771429567742</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="3">
+        <v>3.0635617823423282</v>
+      </c>
+      <c r="C56" s="3">
         <v>2.436666666666667</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>14.153333333333331</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>2076.3853018355212</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>12.74140467389106</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>2.3664085564659811</v>
       </c>
-      <c r="H56">
-        <v>3.6238758286455091</v>
-      </c>
-      <c r="I56">
-        <v>-3.908846060371101</v>
-      </c>
-      <c r="J56">
-        <v>2.0684725622669108E-2</v>
-      </c>
-      <c r="K56">
+      <c r="H56" s="3">
+        <v>3.6903386214379617</v>
+      </c>
+      <c r="I56" s="3">
+        <v>-3.8334364139111239</v>
+      </c>
+      <c r="J56" s="3">
+        <v>2.0684725622669107</v>
+      </c>
+      <c r="K56" s="3">
         <v>20.184738670742242</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>15.116669999999999</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="3">
         <v>11.217102848535269</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="3">
         <v>0.93862395726757564</v>
       </c>
     </row>
@@ -2907,43 +2918,43 @@
       <c r="A57" s="2">
         <v>42004</v>
       </c>
-      <c r="B57">
-        <v>16.979629435304439</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="3">
+        <v>3.1746778585083097</v>
+      </c>
+      <c r="C57" s="3">
         <v>2.4666666666666668</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>14.36333333333333</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>2084.6257123748851</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>14.480372843950621</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>2.931675982821786</v>
       </c>
-      <c r="H57">
-        <v>3.0631796740400969</v>
-      </c>
-      <c r="I57">
-        <v>-2.9423564980317511</v>
-      </c>
-      <c r="J57">
-        <v>8.5549358162577988E-3</v>
-      </c>
-      <c r="K57">
+      <c r="H57" s="3">
+        <v>3.1105777474303977</v>
+      </c>
+      <c r="I57" s="3">
+        <v>-2.8994906401749923</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0.85549358162577993</v>
+      </c>
+      <c r="K57" s="3">
         <v>20.591387531778551</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="3">
         <v>15.52</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="3">
         <v>-4.5469768410048603</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="3">
         <v>0.94598959082697343</v>
       </c>
     </row>
@@ -2951,43 +2962,43 @@
       <c r="A58" s="2">
         <v>42094</v>
       </c>
-      <c r="B58">
-        <v>16.487591870468101</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="3">
+        <v>3.9499853336884851</v>
+      </c>
+      <c r="C58" s="3">
         <v>2.5666666666666669</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>14.14666666666667</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>2071.465811678976</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>14.05378297264966</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>2.6260599468133168</v>
       </c>
-      <c r="H58">
-        <v>3.539430852862508</v>
-      </c>
-      <c r="I58">
-        <v>-6.9431796018123757</v>
-      </c>
-      <c r="J58">
-        <v>1.802406134671479E-2</v>
-      </c>
-      <c r="K58">
+      <c r="H58" s="3">
+        <v>3.6028143002468038</v>
+      </c>
+      <c r="I58" s="3">
+        <v>-6.7076239670032747</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1.8024061346714793</v>
+      </c>
+      <c r="K58" s="3">
         <v>21.28576974071478</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="3">
         <v>16.533329999999999</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="3">
         <v>-16.101497546647131</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="3">
         <v>0.94970712637838006</v>
       </c>
     </row>
@@ -2995,43 +3006,43 @@
       <c r="A59" s="2">
         <v>42185</v>
       </c>
-      <c r="B59">
-        <v>16.19819561022415</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="3">
+        <v>3.5749102805068866</v>
+      </c>
+      <c r="C59" s="3">
         <v>2.6533333333333329</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>14.35333333333333</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>2043.1236001432251</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>18.773489457682182</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>5.1245092824955396</v>
       </c>
-      <c r="H59">
-        <v>3.760624835701893</v>
-      </c>
-      <c r="I59">
-        <v>-8.5452078975509433</v>
-      </c>
-      <c r="J59">
-        <v>3.3289563344114932E-2</v>
-      </c>
-      <c r="K59">
+      <c r="H59" s="3">
+        <v>3.832231126099872</v>
+      </c>
+      <c r="I59" s="3">
+        <v>-8.1902861844552373</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3.3289563344114934</v>
+      </c>
+      <c r="K59" s="3">
         <v>20.267813119470858</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="3">
         <v>15.54</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="3">
         <v>-2.3593600995966191</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="3">
         <v>0.94769074222048044</v>
       </c>
     </row>
@@ -3039,43 +3050,43 @@
       <c r="A60" s="2">
         <v>42277</v>
       </c>
-      <c r="B60">
-        <v>16.0663317841638</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="3">
+        <v>3.4136574888735702</v>
+      </c>
+      <c r="C60" s="3">
         <v>2.67</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>14.31666666666667</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>2045.9536166985599</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>13.66449139592757</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
         <v>4.3904652963162452</v>
       </c>
-      <c r="H60">
-        <v>3.8659487236582</v>
-      </c>
-      <c r="I60">
-        <v>-4.2942370181374274</v>
-      </c>
-      <c r="J60">
-        <v>3.1669852554262988E-2</v>
-      </c>
-      <c r="K60">
+      <c r="H60" s="3">
+        <v>3.9416488802751921</v>
+      </c>
+      <c r="I60" s="3">
+        <v>-4.2033404082563957</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3.1669852554262987</v>
+      </c>
+      <c r="K60" s="3">
         <v>20.45899714823787</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="3">
         <v>21.683330000000002</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="3">
         <v>-19.39624164467671</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="3">
         <v>0.95237803443495317</v>
       </c>
     </row>
@@ -3083,43 +3094,43 @@
       <c r="A61" s="2">
         <v>42369</v>
       </c>
-      <c r="B61">
-        <v>16.067725497370279</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="3">
+        <v>3.3358842306037766</v>
+      </c>
+      <c r="C61" s="3">
         <v>2.6033333333333331</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>14.17333333333333</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>2036.8277360462</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>14.850415327231291</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
         <v>3.8274479492279152</v>
       </c>
-      <c r="H61">
-        <v>4.0942489664903654</v>
-      </c>
-      <c r="I61">
-        <v>-0.93102082312089551</v>
-      </c>
-      <c r="J61">
-        <v>4.5713964267243418E-2</v>
-      </c>
-      <c r="K61">
+      <c r="H61" s="3">
+        <v>4.1792190004666736</v>
+      </c>
+      <c r="I61" s="3">
+        <v>-0.9267002431517376</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4.5713964267243421</v>
+      </c>
+      <c r="K61" s="3">
         <v>20.786570406609119</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>16.47</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="3">
         <v>-2.4617597155812181</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="3">
         <v>0.96037145611483354</v>
       </c>
     </row>
@@ -3127,43 +3138,43 @@
       <c r="A62" s="2">
         <v>42460</v>
       </c>
-      <c r="B62">
-        <v>16.19930901408091</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="3">
+        <v>3.1802634890719483</v>
+      </c>
+      <c r="C62" s="3">
         <v>2.683333333333334</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>14.256666666666669</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>2049.3084721720129</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>6.0343592400119848</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
         <v>3.9008825046401259</v>
       </c>
-      <c r="H62">
-        <v>3.9971278397478458</v>
-      </c>
-      <c r="I62">
-        <v>0.5096397961953848</v>
-      </c>
-      <c r="J62">
-        <v>5.20636571629952E-2</v>
-      </c>
-      <c r="K62">
+      <c r="H62" s="3">
+        <v>4.0780880868325768</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0.51094066878732913</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5.2063657162995201</v>
+      </c>
+      <c r="K62" s="3">
         <v>19.288909562770009</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="3">
         <v>18.233329999999999</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="3">
         <v>-4.0551035433244778</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="3">
         <v>0.9540932946752918</v>
       </c>
     </row>
@@ -3171,43 +3182,43 @@
       <c r="A63" s="2">
         <v>42551</v>
       </c>
-      <c r="B63">
-        <v>16.61882933351005</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="3">
+        <v>3.1739865385483625</v>
+      </c>
+      <c r="C63" s="3">
         <v>2.833333333333333</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>14.92</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>2033.860915689756</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>0.30764812817857129</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
         <v>2.037047740449391</v>
       </c>
-      <c r="H63">
-        <v>3.5025463557170911</v>
-      </c>
-      <c r="I63">
-        <v>-2.3780277631348961</v>
-      </c>
-      <c r="J63">
-        <v>3.084626664315673E-2</v>
-      </c>
-      <c r="K63">
+      <c r="H63" s="3">
+        <v>3.5646079697032707</v>
+      </c>
+      <c r="I63" s="3">
+        <v>-2.3499754865215055</v>
+      </c>
+      <c r="J63" s="3">
+        <v>3.0846266643156732</v>
+      </c>
+      <c r="K63" s="3">
         <v>18.019783483948139</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="3">
         <v>15.17333</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="3">
         <v>7.6549872913327031</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="3">
         <v>0.95912348036857742</v>
       </c>
     </row>
@@ -3215,43 +3226,43 @@
       <c r="A64" s="2">
         <v>42643</v>
       </c>
-      <c r="B64">
-        <v>17.27039567472826</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="3">
+        <v>3.2211067676520018</v>
+      </c>
+      <c r="C64" s="3">
         <v>2.8733333333333331</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>15.16666666666667</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>2015.080729937697</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>7.3938224807754818</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
         <v>2.1105441131515841</v>
       </c>
-      <c r="H64">
-        <v>3.7027483766499012</v>
-      </c>
-      <c r="I64">
-        <v>-6.2881493409400324</v>
-      </c>
-      <c r="J64">
-        <v>4.4295229017501471E-2</v>
-      </c>
-      <c r="K64">
+      <c r="H64" s="3">
+        <v>3.772154094275769</v>
+      </c>
+      <c r="I64" s="3">
+        <v>-6.0945248727600791</v>
+      </c>
+      <c r="J64" s="3">
+        <v>4.429522901750147</v>
+      </c>
+      <c r="K64" s="3">
         <v>17.743855832242971</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="3">
         <v>12.86</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="3">
         <v>13.446872045519051</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="3">
         <v>0.95449864226543057</v>
       </c>
     </row>
@@ -3259,43 +3270,43 @@
       <c r="A65" s="2">
         <v>42735</v>
       </c>
-      <c r="B65">
-        <v>18.1796566629864</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="3">
+        <v>3.4138525482027018</v>
+      </c>
+      <c r="C65" s="3">
         <v>2.9033333333333342</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>15.11333333333333</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>2020.0175213618611</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>2.7803376669849582</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
         <v>5.0483174423485364</v>
       </c>
-      <c r="H65">
-        <v>3.2440310344462082</v>
-      </c>
-      <c r="I65">
-        <v>-7.3066091573290857</v>
-      </c>
-      <c r="J65">
-        <v>3.13903087628912E-2</v>
-      </c>
-      <c r="K65">
+      <c r="H65" s="3">
+        <v>3.2972233546970156</v>
+      </c>
+      <c r="I65" s="3">
+        <v>-7.0460606725348081</v>
+      </c>
+      <c r="J65" s="3">
+        <v>3.1390308762891199</v>
+      </c>
+      <c r="K65" s="3">
         <v>15.53604579094544</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="3">
         <v>14.81</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="3">
         <v>10.28776462584131</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="3">
         <v>0.9558398102003498</v>
       </c>
     </row>
@@ -3303,43 +3314,43 @@
       <c r="A66" s="2">
         <v>42825</v>
       </c>
-      <c r="B66">
-        <v>18.60130127576209</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="3">
+        <v>3.2117181012584664</v>
+      </c>
+      <c r="C66" s="3">
         <v>2.9833333333333329</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>15.36333333333334</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>2013.073766114846</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>-3.6129182617309228</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
         <v>4.4985698102296547</v>
       </c>
-      <c r="H66">
-        <v>2.6320527828212041</v>
-      </c>
-      <c r="I66">
-        <v>-7.3753294952063522</v>
-      </c>
-      <c r="J66">
-        <v>1.783880884627136E-2</v>
-      </c>
-      <c r="K66">
+      <c r="H66" s="3">
+        <v>2.6669972036448599</v>
+      </c>
+      <c r="I66" s="3">
+        <v>-7.1099169900592827</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1.7838808846271359</v>
+      </c>
+      <c r="K66" s="3">
         <v>12.620540351869179</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="3">
         <v>12.42667</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="3">
         <v>4.482640237706606E-2</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="3">
         <v>0.96071285189729705</v>
       </c>
     </row>
@@ -3347,43 +3358,43 @@
       <c r="A67" s="2">
         <v>42916</v>
       </c>
-      <c r="B67">
-        <v>18.452474534142191</v>
-      </c>
-      <c r="C67">
+      <c r="B67" s="3">
+        <v>3.2998905233439584</v>
+      </c>
+      <c r="C67" s="3">
         <v>3.1</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>15.84</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>1987.845627153137</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>1.5105048027026149</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
         <v>0.78124928434364393</v>
       </c>
-      <c r="H67">
-        <v>2.602164227530432</v>
-      </c>
-      <c r="I67">
-        <v>-4.2297138925834163</v>
-      </c>
-      <c r="J67">
-        <v>3.0956157845411239E-2</v>
-      </c>
-      <c r="K67">
+      <c r="H67" s="3">
+        <v>2.6363161067169778</v>
+      </c>
+      <c r="I67" s="3">
+        <v>-4.1415094638276511</v>
+      </c>
+      <c r="J67" s="3">
+        <v>3.0956157845411241</v>
+      </c>
+      <c r="K67" s="3">
         <v>12.450585594087549</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="3">
         <v>10.803330000000001</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="3">
         <v>-3.8045097478281691</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="3">
         <v>0.96534038181771153</v>
       </c>
     </row>
@@ -3391,43 +3402,43 @@
       <c r="A68" s="2">
         <v>43008</v>
       </c>
-      <c r="B68">
-        <v>19.19993192166752</v>
-      </c>
-      <c r="C68">
+      <c r="B68" s="3">
+        <v>3.3610758493766064</v>
+      </c>
+      <c r="C68" s="3">
         <v>3.1033333333333331</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>15.9</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>1983.5121666662451</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>5.3282512425543516</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
         <v>1.4360580169433941</v>
       </c>
-      <c r="H68">
-        <v>2.8213248343249879</v>
-      </c>
-      <c r="I68">
-        <v>4.7830720009121332</v>
-      </c>
-      <c r="J68">
-        <v>2.8305779122731842E-2</v>
-      </c>
-      <c r="K68">
+      <c r="H68" s="3">
+        <v>2.861501148206818</v>
+      </c>
+      <c r="I68" s="3">
+        <v>4.8993066757026584</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2.830577912273184</v>
+      </c>
+      <c r="K68" s="3">
         <v>14.53214256552643</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="3">
         <v>10.119999999999999</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="3">
         <v>20.262856978143841</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="3">
         <v>0.95958037433682231</v>
       </c>
     </row>
@@ -3435,43 +3446,43 @@
       <c r="A69" s="2">
         <v>43100</v>
       </c>
-      <c r="B69">
-        <v>19.636494106931188</v>
-      </c>
-      <c r="C69">
+      <c r="B69" s="3">
+        <v>3.4326744772691433</v>
+      </c>
+      <c r="C69" s="3">
         <v>3.1</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>15.36333333333334</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>2005.075754377121</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>9.1709378738027709</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
         <v>-0.16718358170930719</v>
       </c>
-      <c r="H69">
-        <v>2.811998837360036</v>
-      </c>
-      <c r="I69">
-        <v>3.8806081459395259</v>
-      </c>
-      <c r="J69">
-        <v>2.3488399926196491E-2</v>
-      </c>
-      <c r="K69">
+      <c r="H69" s="3">
+        <v>2.8519087350326697</v>
+      </c>
+      <c r="I69" s="3">
+        <v>3.9568872424113555</v>
+      </c>
+      <c r="J69" s="3">
+        <v>2.3488399926196495</v>
+      </c>
+      <c r="K69" s="3">
         <v>13.849011521583741</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="3">
         <v>10.83333</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="3">
         <v>20.709169924652951</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="3">
         <v>0.95487091665213097</v>
       </c>
     </row>
@@ -3479,43 +3490,43 @@
       <c r="A70" s="2">
         <v>43190</v>
       </c>
-      <c r="B70">
-        <v>19.737150978147259</v>
-      </c>
-      <c r="C70">
+      <c r="B70" s="3">
+        <v>3.6704974735160225</v>
+      </c>
+      <c r="C70" s="3">
         <v>3.1433333333333331</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>15.37333333333333</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>2014.149181093137</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>5.9436248077720846</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
         <v>1.672504061105804</v>
       </c>
-      <c r="H70">
-        <v>3.404524564737613</v>
-      </c>
-      <c r="I70">
-        <v>6.0221827738443929</v>
-      </c>
-      <c r="J70">
-        <v>4.2502428989412248E-2</v>
-      </c>
-      <c r="K70">
+      <c r="H70" s="3">
+        <v>3.4631418237415312</v>
+      </c>
+      <c r="I70" s="3">
+        <v>6.2072117472193833</v>
+      </c>
+      <c r="J70" s="3">
+        <v>4.2502428989412246</v>
+      </c>
+      <c r="K70" s="3">
         <v>12.695169677736679</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="3">
         <v>17.786670000000001</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="3">
         <v>-4.0642180642625627</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="3">
         <v>0.95977864486304065</v>
       </c>
     </row>
@@ -3523,43 +3534,43 @@
       <c r="A71" s="2">
         <v>43281</v>
       </c>
-      <c r="B71">
-        <v>19.773202457746152</v>
-      </c>
-      <c r="C71">
+      <c r="B71" s="3">
+        <v>3.6521857747558832</v>
+      </c>
+      <c r="C71" s="3">
         <v>3.1166666666666671</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>15.35</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>2002.6103874352859</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>10.719941338918719</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
         <v>0.83694688754375557</v>
       </c>
-      <c r="H71">
-        <v>4.2980762449823784</v>
-      </c>
-      <c r="I71">
-        <v>7.768904040579101</v>
-      </c>
-      <c r="J71">
-        <v>4.4366563346956212E-2</v>
-      </c>
-      <c r="K71">
+      <c r="H71" s="3">
+        <v>4.3917812236150278</v>
+      </c>
+      <c r="I71" s="3">
+        <v>8.0786525471482928</v>
+      </c>
+      <c r="J71" s="3">
+        <v>4.4366563346956216</v>
+      </c>
+      <c r="K71" s="3">
         <v>13.30533498374581</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="3">
         <v>15.81667</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="3">
         <v>-14.31571697293229</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="3">
         <v>0.95870620094667225</v>
       </c>
     </row>
@@ -3567,43 +3578,43 @@
       <c r="A72" s="2">
         <v>43373</v>
       </c>
-      <c r="B72">
-        <v>20.52819777920768</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="3">
+        <v>3.6850660285921744</v>
+      </c>
+      <c r="C72" s="3">
         <v>3.16</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>15.06666666666667</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>1995.541183268954</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>7.9567217020115901</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
         <v>2.8845273968311891</v>
       </c>
-      <c r="H72">
-        <v>3.2330415391344229</v>
-      </c>
-      <c r="I72">
-        <v>-0.39786175916909888</v>
-      </c>
-      <c r="J72">
-        <v>2.5516094310929521E-2</v>
-      </c>
-      <c r="K72">
+      <c r="H72" s="3">
+        <v>3.2858721349115605</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-0.39707133788085874</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2.551609431092952</v>
+      </c>
+      <c r="K72" s="3">
         <v>12.785194875703979</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="3">
         <v>12.60333</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="3">
         <v>-22.92547469770183</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="3">
         <v>0.96410686393933398</v>
       </c>
     </row>
@@ -3611,43 +3622,43 @@
       <c r="A73" s="2">
         <v>43465</v>
       </c>
-      <c r="B73">
-        <v>20.52700754137058</v>
-      </c>
-      <c r="C73">
+      <c r="B73" s="3">
+        <v>3.6574229237538693</v>
+      </c>
+      <c r="C73" s="3">
         <v>3.04</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>14.696666666666671</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>2004.4711673515139</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>12.567655304222241</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
         <v>2.7840543772459259</v>
       </c>
-      <c r="H73">
-        <v>3.8925766609123631</v>
-      </c>
-      <c r="I73">
-        <v>4.3565906323050116</v>
-      </c>
-      <c r="J73">
-        <v>4.3973874627805019E-2</v>
-      </c>
-      <c r="K73">
+      <c r="H73" s="3">
+        <v>3.9693300826230149</v>
+      </c>
+      <c r="I73" s="3">
+        <v>4.452883309825495</v>
+      </c>
+      <c r="J73" s="3">
+        <v>4.3973874627805021</v>
+      </c>
+      <c r="K73" s="3">
         <v>13.71763218584341</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="3">
         <v>21.573329999999999</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="3">
         <v>1.2461482920977831</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="3">
         <v>0.96402492312508536</v>
       </c>
     </row>
@@ -3655,43 +3666,43 @@
       <c r="A74" s="2">
         <v>43555</v>
       </c>
-      <c r="B74">
-        <v>20.547842891427251</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="3">
+        <v>3.5458241890215785</v>
+      </c>
+      <c r="C74" s="3">
         <v>3.0266666666666668</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>14.85333333333333</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>1983.3271620585849</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>1.998705740361999</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
         <v>1.9299518624145491</v>
       </c>
-      <c r="H74">
-        <v>3.510251044579948</v>
-      </c>
-      <c r="I74">
-        <v>1.978466890618096</v>
-      </c>
-      <c r="J74">
-        <v>2.0105919338830689E-2</v>
-      </c>
-      <c r="K74">
+      <c r="H74" s="3">
+        <v>3.5725876079185608</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1.9981682606677174</v>
+      </c>
+      <c r="J74" s="3">
+        <v>2.0105919338830684</v>
+      </c>
+      <c r="K74" s="3">
         <v>13.22071350319839</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="3">
         <v>15.02</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="3">
         <v>0.803055529761456</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="3">
         <v>0.98603066119128469</v>
       </c>
     </row>
@@ -3699,43 +3710,43 @@
       <c r="A75" s="2">
         <v>43646</v>
       </c>
-      <c r="B75">
-        <v>20.084699069246462</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="3">
+        <v>3.6960194494887086</v>
+      </c>
+      <c r="C75" s="3">
         <v>3.08</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>14.97666666666667</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>1994.755665427442</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>7.3901278942780149</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
         <v>2.424113161148552</v>
       </c>
-      <c r="H75">
-        <v>2.7689844986574381</v>
-      </c>
-      <c r="I75">
-        <v>5.7502663974460546</v>
-      </c>
-      <c r="J75">
-        <v>1.9126716031567369E-2</v>
-      </c>
-      <c r="K75">
+      <c r="H75" s="3">
+        <v>2.8076771802846645</v>
+      </c>
+      <c r="I75" s="3">
+        <v>5.9188092301000683</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1.9126716031567366</v>
+      </c>
+      <c r="K75" s="3">
         <v>13.30649064186534</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="3">
         <v>15.636670000000001</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="3">
         <v>6.9694228047292137</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="3">
         <v>0.99024953775077773</v>
       </c>
     </row>
@@ -3743,43 +3754,43 @@
       <c r="A76" s="2">
         <v>43738</v>
       </c>
-      <c r="B76">
-        <v>20.449191177184439</v>
-      </c>
-      <c r="C76">
+      <c r="B76" s="3">
+        <v>3.7547517607881349</v>
+      </c>
+      <c r="C76" s="3">
         <v>3.12</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>14.77333333333333</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>2004.632412095247</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>9.2726163971472069</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
         <v>0.76908432431528206</v>
       </c>
-      <c r="H76">
-        <v>3.5521185968789268</v>
-      </c>
-      <c r="I76">
-        <v>6.3947714128704423</v>
-      </c>
-      <c r="J76">
-        <v>3.2399145217149851E-2</v>
-      </c>
-      <c r="K76">
+      <c r="H76" s="3">
+        <v>3.6159599940473734</v>
+      </c>
+      <c r="I76" s="3">
+        <v>6.6036658648777173</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3.2399145217149852</v>
+      </c>
+      <c r="K76" s="3">
         <v>14.29381655306771</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="3">
         <v>17.113330000000001</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="3">
         <v>5.3617684771097789</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="3">
         <v>0.98800509061028841</v>
       </c>
     </row>
@@ -3787,43 +3798,43 @@
       <c r="A77" s="2">
         <v>43830</v>
       </c>
-      <c r="B77">
-        <v>20.983602221773651</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="3">
+        <v>3.7791394070372513</v>
+      </c>
+      <c r="C77" s="3">
         <v>3.05</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>14.676666666666669</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>2020.6809373855531</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>9.0156280612951853</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
         <v>2.336581579491769</v>
       </c>
-      <c r="H77">
-        <v>3.0053980530220552</v>
-      </c>
-      <c r="I77">
-        <v>-0.61860434007467768</v>
-      </c>
-      <c r="J77">
-        <v>1.7399942417751429E-2</v>
-      </c>
-      <c r="K77">
+      <c r="H77" s="3">
+        <v>3.0510159936974337</v>
+      </c>
+      <c r="I77" s="3">
+        <v>-0.61669492270194948</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1.7399942417751433</v>
+      </c>
+      <c r="K77" s="3">
         <v>14.443276263292621</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="3">
         <v>13.206670000000001</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="3">
         <v>-5.8964842596191858</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="3">
         <v>0.99534630799382162</v>
       </c>
     </row>
@@ -3831,43 +3842,43 @@
       <c r="A78" s="2">
         <v>43921</v>
       </c>
-      <c r="B78">
-        <v>21.142119056973481</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="3">
+        <v>3.2152662880230953</v>
+      </c>
+      <c r="C78" s="3">
         <v>3.11</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>14.256666666666669</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>2017.5787742723751</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>6.1982461267812896</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
         <v>1.750376715140693</v>
       </c>
-      <c r="H78">
-        <v>-3.0017769363340432</v>
-      </c>
-      <c r="I78">
-        <v>-11.39276439603386</v>
-      </c>
-      <c r="J78">
-        <v>-3.3086327367820648E-2</v>
-      </c>
-      <c r="K78">
+      <c r="H78" s="3">
+        <v>-2.9571710497571244</v>
+      </c>
+      <c r="I78" s="3">
+        <v>-10.767748152982923</v>
+      </c>
+      <c r="J78" s="3">
+        <v>-3.3086327367820649</v>
+      </c>
+      <c r="K78" s="3">
         <v>15.03868129463611</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="3">
         <v>37.496670000000002</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="3">
         <v>9.1453912824953125</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="3">
         <v>0.99335793661715754</v>
       </c>
     </row>
@@ -3875,43 +3886,43 @@
       <c r="A79" s="2">
         <v>44012</v>
       </c>
-      <c r="B79">
-        <v>18.681765926144351</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="3">
+        <v>1.8765360713211749</v>
+      </c>
+      <c r="C79" s="3">
         <v>3.2033333333333331</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>14.733333333333331</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>2083.5679669143451</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>31.996083605387369</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
         <v>1.896799257376435</v>
       </c>
-      <c r="H79">
-        <v>-26.16614621229871</v>
-      </c>
-      <c r="I79">
-        <v>-90.463015150719144</v>
-      </c>
-      <c r="J79">
-        <v>-0.29660251752393579</v>
-      </c>
-      <c r="K79">
+      <c r="H79" s="3">
+        <v>-23.022842356312477</v>
+      </c>
+      <c r="I79" s="3">
+        <v>-59.530846801886753</v>
+      </c>
+      <c r="J79" s="3">
+        <v>-29.660251752393581</v>
+      </c>
+      <c r="K79" s="3">
         <v>20.332774394747059</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="3">
         <v>30.696670000000001</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="3">
         <v>1.03794800827818</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="3">
         <v>0.94425362432113769</v>
       </c>
     </row>
@@ -3919,43 +3930,43 @@
       <c r="A80" s="2">
         <v>44104</v>
       </c>
-      <c r="B80">
-        <v>17.527581191591771</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="3">
+        <v>1.3040079519250751</v>
+      </c>
+      <c r="C80" s="3">
         <v>3.1366666666666672</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>15.543333333333329</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>2095.0532813496479</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>21.705611289578361</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
         <v>1.0770578363162771</v>
       </c>
-      <c r="H80">
-        <v>-10.70745110502202</v>
-      </c>
-      <c r="I80">
-        <v>-11.283824354519069</v>
-      </c>
-      <c r="J80">
-        <v>-8.9283620008952555E-2</v>
-      </c>
-      <c r="K80">
+      <c r="H80" s="3">
+        <v>-10.154127460703982</v>
+      </c>
+      <c r="I80" s="3">
+        <v>-10.670485531425264</v>
+      </c>
+      <c r="J80" s="3">
+        <v>-8.9283620008952553</v>
+      </c>
+      <c r="K80" s="3">
         <v>13.91462954551379</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="3">
         <v>25.746670000000002</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="3">
         <v>40.137749316242918</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="3">
         <v>0.90444192436048476</v>
       </c>
     </row>
@@ -3963,43 +3974,43 @@
       <c r="A81" s="2">
         <v>44196</v>
       </c>
-      <c r="B81">
-        <v>17.46729252656694</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="3">
+        <v>1.0166116145113198</v>
+      </c>
+      <c r="C81" s="3">
         <v>3.6733333333333329</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>15.53333333333333</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>2103.571313851498</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>0.86335685066756318</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
         <v>2.987153982701098</v>
       </c>
-      <c r="H81">
-        <v>-2.6800219590968668</v>
-      </c>
-      <c r="I81">
-        <v>12.4738156521001</v>
-      </c>
-      <c r="J81">
-        <v>-1.6246625697724421E-2</v>
-      </c>
-      <c r="K81">
+      <c r="H81" s="3">
+        <v>-2.6444280542902621</v>
+      </c>
+      <c r="I81" s="3">
+        <v>13.285178437572917</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1.6246625697724419</v>
+      </c>
+      <c r="K81" s="3">
         <v>11.115923493331181</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="3">
         <v>27.113330000000001</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="3">
         <v>15.927098902220919</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="3">
         <v>0.84378474818280125</v>
       </c>
     </row>
@@ -4007,43 +4018,43 @@
       <c r="A82" s="2">
         <v>44286</v>
       </c>
-      <c r="B82">
-        <v>17.042380995314911</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="3">
+        <v>1.3780402717966556</v>
+      </c>
+      <c r="C82" s="3">
         <v>3.81</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>15.73</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>2109.1552485303928</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>-5.154687005390338</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
         <v>4.3305358934633924</v>
       </c>
-      <c r="H82">
-        <v>3.7679244253716049</v>
-      </c>
-      <c r="I82">
-        <v>28.987814159501109</v>
-      </c>
-      <c r="J82">
-        <v>4.4205804258443553E-2</v>
-      </c>
-      <c r="K82">
+      <c r="H82" s="3">
+        <v>3.8398107295535908</v>
+      </c>
+      <c r="I82" s="3">
+        <v>33.626464302561551</v>
+      </c>
+      <c r="J82" s="3">
+        <v>4.4205804258443555</v>
+      </c>
+      <c r="K82" s="3">
         <v>10.823927262209519</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="3">
         <v>26.813330000000001</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="3">
         <v>14.27977714172069</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="3">
         <v>0.85327452706627294</v>
       </c>
     </row>
@@ -4051,43 +4062,43 @@
       <c r="A83" s="2">
         <v>44377</v>
       </c>
-      <c r="B83">
-        <v>17.136720728895838</v>
-      </c>
-      <c r="C83">
+      <c r="B83" s="3">
+        <v>1.667920683927304</v>
+      </c>
+      <c r="C83" s="3">
         <v>3.6</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>15.573333333333331</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>2115.3180360106539</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>16.779135977532391</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
         <v>2.2531826830004982</v>
       </c>
-      <c r="H83">
-        <v>27.3199748572051</v>
-      </c>
-      <c r="I83">
-        <v>100.4955822814955</v>
-      </c>
-      <c r="J83">
-        <v>0.42936399629429012</v>
-      </c>
-      <c r="K83">
+      <c r="H83" s="3">
+        <v>31.416272073618195</v>
+      </c>
+      <c r="I83" s="3">
+        <v>173.1786587518599</v>
+      </c>
+      <c r="J83" s="3">
+        <v>42.936399629429012</v>
+      </c>
+      <c r="K83" s="3">
         <v>11.81132796278183</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="3">
         <v>17.066669999999998</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="3">
         <v>1.242152101006115</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="3">
         <v>0.87817335382654016</v>
       </c>
     </row>
@@ -4095,43 +4106,43 @@
       <c r="A84" s="2">
         <v>44469</v>
       </c>
-      <c r="B84">
-        <v>17.036510588212629</v>
-      </c>
-      <c r="C84">
+      <c r="B84" s="3">
+        <v>1.9645284405393546</v>
+      </c>
+      <c r="C84" s="3">
         <v>3.6966666666666672</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>15.19333333333333</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>2128.2598685204271</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>16.21054323184239</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
         <v>8.6471891631722002</v>
       </c>
-      <c r="H84">
-        <v>12.1966782146127</v>
-      </c>
-      <c r="I84">
-        <v>22.466341293713231</v>
-      </c>
-      <c r="J84">
-        <v>0.1137407710235495</v>
-      </c>
-      <c r="K84">
+      <c r="H84" s="3">
+        <v>12.971657439694638</v>
+      </c>
+      <c r="I84" s="3">
+        <v>25.190127149745351</v>
+      </c>
+      <c r="J84" s="3">
+        <v>11.374077102354951</v>
+      </c>
+      <c r="K84" s="3">
         <v>14.00210500266723</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="3">
         <v>19.286670000000001</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="3">
         <v>-5.4028022838056904</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="3">
         <v>0.92737957855232045</v>
       </c>
     </row>
@@ -4139,43 +4150,43 @@
       <c r="A85" s="2">
         <v>44561</v>
       </c>
-      <c r="B85">
-        <v>18.10986363123952</v>
-      </c>
-      <c r="C85">
+      <c r="B85" s="3">
+        <v>2.3585782078893547</v>
+      </c>
+      <c r="C85" s="3">
         <v>3.816666666666666</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>15.016666666666669</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>2112.9998358642051</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>-4.0367047510178802</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
         <v>7.9482664519909987</v>
       </c>
-      <c r="H85">
-        <v>4.6347214589798753</v>
-      </c>
-      <c r="I85">
-        <v>-1.6518099370012069</v>
-      </c>
-      <c r="J85">
-        <v>3.1367694127484448E-2</v>
-      </c>
-      <c r="K85">
+      <c r="H85" s="3">
+        <v>4.7438033592915314</v>
+      </c>
+      <c r="I85" s="3">
+        <v>-1.6382423628903995</v>
+      </c>
+      <c r="J85" s="3">
+        <v>3.1367694127484449</v>
+      </c>
+      <c r="K85" s="3">
         <v>12.50770512874108</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="3">
         <v>20.223330000000001</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="3">
         <v>8.4992741597826651</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="3">
         <v>0.96486538792118481</v>
       </c>
     </row>
@@ -4183,43 +4194,43 @@
       <c r="A86" s="2">
         <v>44651</v>
       </c>
-      <c r="B86">
-        <v>18.71783096050903</v>
-      </c>
-      <c r="C86">
+      <c r="B86" s="3">
+        <v>3.0850407231599886</v>
+      </c>
+      <c r="C86" s="3">
         <v>3.84</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>14.81</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>2091.7114839426208</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>-0.80434294186731337</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
         <v>5.3060804293413799</v>
       </c>
-      <c r="H86">
-        <v>4.3816209911743567</v>
-      </c>
-      <c r="I86">
-        <v>-1.599459895882853</v>
-      </c>
-      <c r="J86">
-        <v>3.8007697507368023E-2</v>
-      </c>
-      <c r="K86">
+      <c r="H86" s="3">
+        <v>4.4790315137254382</v>
+      </c>
+      <c r="I86" s="3">
+        <v>-1.5867364618187112</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3.8007697507368023</v>
+      </c>
+      <c r="K86" s="3">
         <v>9.7739066146262328</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="3">
         <v>25.18</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="3">
         <v>-16.988441081859431</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="3">
         <v>0.99179128018349272</v>
       </c>
     </row>
@@ -4227,43 +4238,43 @@
       <c r="A87" s="2">
         <v>44742</v>
       </c>
-      <c r="B87">
-        <v>18.613331524607169</v>
-      </c>
-      <c r="C87">
+      <c r="B87" s="3">
+        <v>3.3485318649483946</v>
+      </c>
+      <c r="C87" s="3">
         <v>3.7966666666666669</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>14.91</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>2071.8389351351479</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>8.8407392358900818</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
         <v>9.9581961409198687</v>
       </c>
-      <c r="H87">
-        <v>4.0715609757002502</v>
-      </c>
-      <c r="I87">
-        <v>0.89554360011968992</v>
-      </c>
-      <c r="J87">
-        <v>3.5245385700556978E-2</v>
-      </c>
-      <c r="K87">
+      <c r="H87" s="3">
+        <v>4.1555855099380894</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0.89956558907440942</v>
+      </c>
+      <c r="J87" s="3">
+        <v>3.5245385700556984</v>
+      </c>
+      <c r="K87" s="3">
         <v>10.539340551174041</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="3">
         <v>29.433330000000002</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="3">
         <v>-35.788434420442123</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="3">
         <v>0.99640171710942982</v>
       </c>
     </row>
@@ -4271,43 +4282,43 @@
       <c r="A88" s="2">
         <v>44834</v>
       </c>
-      <c r="B88">
-        <v>18.99181312784534</v>
-      </c>
-      <c r="C88">
+      <c r="B88" s="3">
+        <v>3.2863248477524998</v>
+      </c>
+      <c r="C88" s="3">
         <v>3.91</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>14.63666666666667</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>2073.590649773837</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>12.0510412546318</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
         <v>9.6426094415321071</v>
       </c>
-      <c r="H88">
-        <v>3.138759324948345</v>
-      </c>
-      <c r="I88">
-        <v>1.004676882695831</v>
-      </c>
-      <c r="J88">
-        <v>1.9643883871116839E-2</v>
-      </c>
-      <c r="K88">
+      <c r="H88" s="3">
+        <v>3.1885378194054135</v>
+      </c>
+      <c r="I88" s="3">
+        <v>1.0097407050321927</v>
+      </c>
+      <c r="J88" s="3">
+        <v>1.9643883871116843</v>
+      </c>
+      <c r="K88" s="3">
         <v>13.272902861626431</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="3">
         <v>26.273330000000001</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="3">
         <v>-9.6024795396810614</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="3">
         <v>0.99999999999999989</v>
       </c>
     </row>
